--- a/meta/word_count.xlsx
+++ b/meta/word_count.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuch/Documents/GitHub/Embedded-AI/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{789D1771-ABD5-8340-A542-58E3E937C7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B84A9B2-E1CA-6B4A-B74D-B828AC340C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
+    <workbookView xWindow="9940" yWindow="8520" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
   </bookViews>
   <sheets>
     <sheet name="Word Count" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,8 +753,12 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="6">
+        <v>45465</v>
+      </c>
+      <c r="B10" s="7">
+        <v>838</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="G10" s="6"/>
@@ -1182,12 +1186,12 @@
       </c>
       <c r="B30" s="11">
         <f>SUM(B9:B29)+SUM(E9:E29)+SUM(H9:H29) + SUM(K9:K29) + SUM(N9:N29) + SUM(Q9:Q29)</f>
-        <v>639</v>
+        <v>1477</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13">
         <f>B30/80000</f>
-        <v>7.9874999999999998E-3</v>
+        <v>1.84625E-2</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>6</v>
@@ -1228,7 +1232,7 @@
       </c>
       <c r="B32" s="16">
         <f>B30/(COUNT(B9:B28)+COUNT(E9:E28)+COUNT(H9:H28)+COUNT(K9:K28)+COUNT(N9:N28))</f>
-        <v>639</v>
+        <v>738.5</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
@@ -1240,7 +1244,7 @@
       </c>
       <c r="B33" s="3">
         <f>88000-B30</f>
-        <v>87361</v>
+        <v>86523</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1250,7 +1254,7 @@
       </c>
       <c r="W33" s="14">
         <f>$T$30+$W$30-$B$30</f>
-        <v>-639</v>
+        <v>-1477</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -1259,7 +1263,7 @@
       </c>
       <c r="B34" s="16">
         <f>B33/B32</f>
-        <v>136.71517996870111</v>
+        <v>117.16046039268788</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>16</v>
@@ -1271,7 +1275,7 @@
       </c>
       <c r="B35" s="18">
         <f ca="1">TODAY() + B34</f>
-        <v>45600.715179968698</v>
+        <v>45582.16046039269</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>18</v>
@@ -1283,7 +1287,7 @@
       </c>
       <c r="B37" s="16">
         <f>B33/12</f>
-        <v>7280.083333333333</v>
+        <v>7210.25</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">

--- a/meta/word_count.xlsx
+++ b/meta/word_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuch/Documents/GitHub/Embedded-AI/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B84A9B2-E1CA-6B4A-B74D-B828AC340C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B889B85-9DBF-9F42-A993-9DCCDAD6E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="8520" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
+    <workbookView xWindow="16860" yWindow="8780" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
   </bookViews>
   <sheets>
     <sheet name="Word Count" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,8 +779,12 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6">
+        <v>45466</v>
+      </c>
+      <c r="B11" s="7">
+        <v>885</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="G11" s="6"/>
@@ -1186,12 +1190,12 @@
       </c>
       <c r="B30" s="11">
         <f>SUM(B9:B29)+SUM(E9:E29)+SUM(H9:H29) + SUM(K9:K29) + SUM(N9:N29) + SUM(Q9:Q29)</f>
-        <v>1477</v>
+        <v>2362</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13">
         <f>B30/80000</f>
-        <v>1.84625E-2</v>
+        <v>2.9524999999999999E-2</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>6</v>
@@ -1232,7 +1236,7 @@
       </c>
       <c r="B32" s="16">
         <f>B30/(COUNT(B9:B28)+COUNT(E9:E28)+COUNT(H9:H28)+COUNT(K9:K28)+COUNT(N9:N28))</f>
-        <v>738.5</v>
+        <v>787.33333333333337</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
@@ -1244,7 +1248,7 @@
       </c>
       <c r="B33" s="3">
         <f>88000-B30</f>
-        <v>86523</v>
+        <v>85638</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1254,7 +1258,7 @@
       </c>
       <c r="W33" s="14">
         <f>$T$30+$W$30-$B$30</f>
-        <v>-1477</v>
+        <v>-2362</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -1263,7 +1267,7 @@
       </c>
       <c r="B34" s="16">
         <f>B33/B32</f>
-        <v>117.16046039268788</v>
+        <v>108.76968670618119</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>16</v>
@@ -1275,7 +1279,7 @@
       </c>
       <c r="B35" s="18">
         <f ca="1">TODAY() + B34</f>
-        <v>45582.16046039269</v>
+        <v>45574.769686706182</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>18</v>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="B37" s="16">
         <f>B33/12</f>
-        <v>7210.25</v>
+        <v>7136.5</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">

--- a/meta/word_count.xlsx
+++ b/meta/word_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuch/Documents/GitHub/Embedded-AI/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B889B85-9DBF-9F42-A993-9DCCDAD6E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543A71CC-ACFD-2B49-8B5A-B79C1F226070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16860" yWindow="8780" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,8 +805,12 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="6">
+        <v>45467</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="G12" s="6"/>
@@ -827,8 +831,12 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="6">
+        <v>45468</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="G13" s="6"/>
@@ -849,8 +857,12 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="6">
+        <v>45469</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1500</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="G14" s="6"/>
@@ -1190,12 +1202,12 @@
       </c>
       <c r="B30" s="11">
         <f>SUM(B9:B29)+SUM(E9:E29)+SUM(H9:H29) + SUM(K9:K29) + SUM(N9:N29) + SUM(Q9:Q29)</f>
-        <v>2362</v>
+        <v>3862</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13">
         <f>B30/80000</f>
-        <v>2.9524999999999999E-2</v>
+        <v>4.8274999999999998E-2</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>6</v>
@@ -1236,7 +1248,7 @@
       </c>
       <c r="B32" s="16">
         <f>B30/(COUNT(B9:B28)+COUNT(E9:E28)+COUNT(H9:H28)+COUNT(K9:K28)+COUNT(N9:N28))</f>
-        <v>787.33333333333337</v>
+        <v>643.66666666666663</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
@@ -1248,7 +1260,7 @@
       </c>
       <c r="B33" s="3">
         <f>88000-B30</f>
-        <v>85638</v>
+        <v>84138</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1258,7 +1270,7 @@
       </c>
       <c r="W33" s="14">
         <f>$T$30+$W$30-$B$30</f>
-        <v>-2362</v>
+        <v>-3862</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -1267,7 +1279,7 @@
       </c>
       <c r="B34" s="16">
         <f>B33/B32</f>
-        <v>108.76968670618119</v>
+        <v>130.71672708441224</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>16</v>
@@ -1279,7 +1291,7 @@
       </c>
       <c r="B35" s="18">
         <f ca="1">TODAY() + B34</f>
-        <v>45574.769686706182</v>
+        <v>45599.716727084415</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>18</v>
@@ -1291,7 +1303,7 @@
       </c>
       <c r="B37" s="16">
         <f>B33/12</f>
-        <v>7136.5</v>
+        <v>7011.5</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">

--- a/meta/word_count.xlsx
+++ b/meta/word_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuch/Documents/GitHub/Embedded-AI/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543A71CC-ACFD-2B49-8B5A-B79C1F226070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E994EBEC-DB6D-2044-8B50-2F2C4D4186BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="8780" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
+    <workbookView xWindow="8560" yWindow="8240" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
   </bookViews>
   <sheets>
     <sheet name="Word Count" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,8 +883,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6">
+        <v>45470</v>
+      </c>
+      <c r="B15" s="7">
+        <f>854+1485</f>
+        <v>2339</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="G15" s="6"/>
@@ -1202,12 +1207,12 @@
       </c>
       <c r="B30" s="11">
         <f>SUM(B9:B29)+SUM(E9:E29)+SUM(H9:H29) + SUM(K9:K29) + SUM(N9:N29) + SUM(Q9:Q29)</f>
-        <v>3862</v>
+        <v>6201</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13">
         <f>B30/80000</f>
-        <v>4.8274999999999998E-2</v>
+        <v>7.7512499999999998E-2</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>6</v>
@@ -1248,7 +1253,7 @@
       </c>
       <c r="B32" s="16">
         <f>B30/(COUNT(B9:B28)+COUNT(E9:E28)+COUNT(H9:H28)+COUNT(K9:K28)+COUNT(N9:N28))</f>
-        <v>643.66666666666663</v>
+        <v>885.85714285714289</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
@@ -1260,7 +1265,7 @@
       </c>
       <c r="B33" s="3">
         <f>88000-B30</f>
-        <v>84138</v>
+        <v>81799</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1270,7 +1275,7 @@
       </c>
       <c r="W33" s="14">
         <f>$T$30+$W$30-$B$30</f>
-        <v>-3862</v>
+        <v>-6201</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -1279,7 +1284,7 @@
       </c>
       <c r="B34" s="16">
         <f>B33/B32</f>
-        <v>130.71672708441224</v>
+        <v>92.338816319948393</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>16</v>
@@ -1291,7 +1296,7 @@
       </c>
       <c r="B35" s="18">
         <f ca="1">TODAY() + B34</f>
-        <v>45599.716727084415</v>
+        <v>45562.338816319949</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>18</v>
@@ -1303,7 +1308,7 @@
       </c>
       <c r="B37" s="16">
         <f>B33/12</f>
-        <v>7011.5</v>
+        <v>6816.583333333333</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -1311,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="18">
-        <v>45365</v>
+        <v>45595</v>
       </c>
     </row>
   </sheetData>

--- a/meta/word_count.xlsx
+++ b/meta/word_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuch/Documents/GitHub/Embedded-AI/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E994EBEC-DB6D-2044-8B50-2F2C4D4186BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865CE5D-131C-B241-A71D-C28577DD503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="8240" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,8 +910,12 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="6">
+        <v>45471</v>
+      </c>
+      <c r="B16" s="7">
+        <v>552</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="G16" s="6"/>
@@ -1207,12 +1211,12 @@
       </c>
       <c r="B30" s="11">
         <f>SUM(B9:B29)+SUM(E9:E29)+SUM(H9:H29) + SUM(K9:K29) + SUM(N9:N29) + SUM(Q9:Q29)</f>
-        <v>6201</v>
+        <v>6753</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13">
         <f>B30/80000</f>
-        <v>7.7512499999999998E-2</v>
+        <v>8.4412500000000001E-2</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>6</v>
@@ -1253,7 +1257,7 @@
       </c>
       <c r="B32" s="16">
         <f>B30/(COUNT(B9:B28)+COUNT(E9:E28)+COUNT(H9:H28)+COUNT(K9:K28)+COUNT(N9:N28))</f>
-        <v>885.85714285714289</v>
+        <v>844.125</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
@@ -1265,7 +1269,7 @@
       </c>
       <c r="B33" s="3">
         <f>88000-B30</f>
-        <v>81799</v>
+        <v>81247</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1275,7 +1279,7 @@
       </c>
       <c r="W33" s="14">
         <f>$T$30+$W$30-$B$30</f>
-        <v>-6201</v>
+        <v>-6753</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -1284,7 +1288,7 @@
       </c>
       <c r="B34" s="16">
         <f>B33/B32</f>
-        <v>92.338816319948393</v>
+        <v>96.249962979416551</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>16</v>
@@ -1296,7 +1300,7 @@
       </c>
       <c r="B35" s="18">
         <f ca="1">TODAY() + B34</f>
-        <v>45562.338816319949</v>
+        <v>45567.249962979418</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>18</v>
@@ -1308,7 +1312,7 @@
       </c>
       <c r="B37" s="16">
         <f>B33/12</f>
-        <v>6816.583333333333</v>
+        <v>6770.583333333333</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">

--- a/meta/word_count.xlsx
+++ b/meta/word_count.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuch/Documents/GitHub/Embedded-AI/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865CE5D-131C-B241-A71D-C28577DD503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E21B002-2521-C342-9493-6629A5F382B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="8240" windowWidth="27640" windowHeight="16940" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
+    <workbookView xWindow="1940" yWindow="7020" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{0ADB3043-401F-AF49-B282-8B91DA08A523}"/>
   </bookViews>
   <sheets>
     <sheet name="Word Count" sheetId="1" r:id="rId1"/>
+    <sheet name="TOC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Target 80,000 words in 3 months (91 days) = 880 per day</t>
   </si>
@@ -111,13 +112,19 @@
   </si>
   <si>
     <t>months</t>
+  </si>
+  <si>
+    <t>Preface</t>
+  </si>
+  <si>
+    <t>Pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +186,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,6 +278,8 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC62B8D-9656-D44A-88C2-D971BE02281C}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1316,7 @@
       </c>
       <c r="B35" s="18">
         <f ca="1">TODAY() + B34</f>
-        <v>45567.249962979418</v>
+        <v>45599.249962979418</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>18</v>
@@ -1321,6 +1337,426 @@
       </c>
       <c r="B38" s="18">
         <v>45595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020FFAAE-5981-4E48-8537-80B1E58CE24B}">
+  <dimension ref="B5:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="19">
+        <f>C6/300</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7:D37" si="0">C7/300</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>7500</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>6000</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="9">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1800</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="9">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="9">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="9">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="9">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="9">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="9">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="9">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>3000</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="9">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="9">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>3000</v>
+      </c>
+      <c r="D28" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="9">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>3000</v>
+      </c>
+      <c r="D29" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="9">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>3000</v>
+      </c>
+      <c r="D30" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="9">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="9">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="9">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="9">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>4000</v>
+      </c>
+      <c r="D34" s="19">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="9">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>3000</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="9">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>31</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D37" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f>SUM(C6:C37)</f>
+        <v>106100</v>
+      </c>
+      <c r="D38" s="19">
+        <f>SUM(D6:D37)</f>
+        <v>353.66666666666663</v>
       </c>
     </row>
   </sheetData>
